--- a/商品表.xlsx
+++ b/商品表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\大三上\数据库\xianyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\系统\文档\tencent files\2417989026\filerecv\mobilefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD6369-81E2-4530-B955-AD6C7D6879D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC9E216-F12F-4C41-A066-1B83FFC0FB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="4332" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,13 +61,169 @@
   </si>
   <si>
     <t>锐龙R9-4900HS/RTX 2060 Max-Q/240Hz/IPS 防眩光非触摸雾面屏/100% sRGB</t>
+  </si>
+  <si>
+    <t>华硕ASUS飞行堡垒8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新十代酷睿标压 15.6英寸电竞游戏本笔记本电脑 i7-10870H 8G 512G固态 GTX 1660Ti-6G 144Hz</t>
+  </si>
+  <si>
+    <t>联想(Lenovo)拯救者Y7000P</t>
+  </si>
+  <si>
+    <t>特尔酷睿i7 15.6英寸游戏笔记本电脑(8核i7-10875H 16G 512G RTX2060 144Hz)灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微星(msi)绝影2 GS66</t>
+  </si>
+  <si>
+    <t>游戏本十代酷睿15.6英寸高色域笔记本电脑 雷电3PD快充 16G内存 i7-10750H/1660Ti/512G固态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">惠普(HP)暗影精灵6 </t>
+  </si>
+  <si>
+    <t>17.3英寸游戏笔记本电脑(i7-10870H 16G 1TSSD RTX2070 8G独显 144Hz)</t>
+  </si>
+  <si>
+    <t>技嘉(GIGABYTE)GeForce RTX 3090</t>
+  </si>
+  <si>
+    <t>GAMING OC 24G魔鹰 游戏显卡吃鸡COD赛博朋克2077</t>
+  </si>
+  <si>
+    <t>技嘉(GIGABYTE)GeForce RTX 3080</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAMING OC 10G魔鹰游戏显卡COD吃鸡支持4K显示器赛博朋克2077</t>
+  </si>
+  <si>
+    <t>MSI微星3060TI</t>
+  </si>
+  <si>
+    <t>VENTUS万图师 RTX 3060TI GAMING X魔龙 游戏独立显卡 3060TI VENTUS 2X 8G OC</t>
+  </si>
+  <si>
+    <t>微星（MSI）RTX 2080 Ti</t>
+  </si>
+  <si>
+    <t>11G 海鹰/闪电 旗舰电竞游戏显卡 RTX2080Ti LIGHTNING Z闪电</t>
+  </si>
+  <si>
+    <t>英特尔（Intel）i9-10900K</t>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10核20线程 盒装CPU处理器</t>
+  </si>
+  <si>
+    <t>英特尔（Intel）i7-10700KF</t>
+  </si>
+  <si>
+    <t>8核16线程 盒装CPU处理器</t>
+  </si>
+  <si>
+    <t>3.6GHz 8核16线程</t>
+  </si>
+  <si>
+    <t>英特尔（Intel）i9-10900KF</t>
+  </si>
+  <si>
+    <t>英特尔（Intel）i5 9400F</t>
+  </si>
+  <si>
+    <t>6核6线程 盒装CPU处理器</t>
+  </si>
+  <si>
+    <t>英特尔（Intel）i9 9900k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额定550W GX550游戏台式电源（80PLUS铜牌/SRC+DC2DC架构/全日系电容/五年质保）</t>
+  </si>
+  <si>
+    <t>850W金牌全模电源支持30显卡/双路供电/十年质保/金牌认证/全日系电容/定制化贴纸</t>
+  </si>
+  <si>
+    <t>额定500W GP600G黑金版电源（金牌认证/宽幅/背线/智能温控风扇/台式机电脑主机箱电源）</t>
+  </si>
+  <si>
+    <t>美商海盗船 (USCORSAIR) </t>
+  </si>
+  <si>
+    <t> 额定650W RM650x 全模组电脑电源（80PLUS金牌/低噪音 /十年质保/全日系电容）</t>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美商海盗船（USCORSAIR）</t>
+  </si>
+  <si>
+    <t>275R 钢化玻璃侧透 中塔机箱 电脑台式组装 散热水冷主机箱 275R Airflow 钢化玻璃中塔机箱 黑色</t>
+  </si>
+  <si>
+    <t>爱国者（aigo）</t>
+  </si>
+  <si>
+    <t>A15全侧透 黑色分体式游戏办公电脑机箱/支持ATX主板/亚克力全侧透/240冷排/可走背线</t>
+  </si>
+  <si>
+    <t>华硕 （ASUS）</t>
+  </si>
+  <si>
+    <t>玩家国度ROG Strix Helios太阳神机箱全塔侧透明玻璃 GPU 支架/电竞游戏机箱</t>
+  </si>
+  <si>
+    <t>酷冷至尊(CoolerMaster)</t>
+  </si>
+  <si>
+    <t>MB520(旋风520）台式电脑中塔机箱(ATX主板/前镜面板/玻璃侧板/独立电源仓)</t>
+  </si>
+  <si>
+    <t>黑色 联力电脑主机箱 高塔8槽/双U3+Type-c/双面玻璃/支持三面水冷及E-ATX主板/双电源仓</t>
+  </si>
+  <si>
+    <t>酷冷至尊（CoolerMaster）GX550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航嘉（Huntkey）WD500K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌500W WD500K电脑电源（80PLUS金牌/单路40A/全电压/LLC+SR+DC-DC/智能温控/apex英雄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕(ASUS)ROG STRIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫谷（Segotep） GP600G黑金版电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIANLI 包豪斯-O11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +233,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -103,8 +266,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,60 +554,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="50.58203125" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7299</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8999</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9899</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10999</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D7" s="2">
         <v>4599</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>9999</v>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6699</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13999</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5599</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13999</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4099</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2299</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3049</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3999</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>999</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
+        <v>399</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2">
+        <v>299</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1199</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2">
+        <v>299</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2">
+        <v>799</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2">
+        <v>599</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2">
+        <v>299</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
